--- a/创客论坛/经费/合同制、学生工作量表.xlsx
+++ b/创客论坛/经费/合同制、学生工作量表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t xml:space="preserve"> 时间（半天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,14 +220,54 @@
     <t>清华大学创客空间</t>
   </si>
   <si>
+    <t>中国银行北京紫荆公寓支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行银行大运村支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建设银行清华大学支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学Toyhouse志愿者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行清华园支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建设银行黑龙江分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建设银行清华园分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217 0000 1004 1529 9600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217 0009 9000 0298 303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217 8501 0000 2986 795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6228 4800 1083 8975 414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>6217 0000 1003 6570</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6228 4800 1083 8975 414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6217 9001 0000 1500 000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,15 +276,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国银行北京紫荆公寓支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招行银行大运村支行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国建设银行清华大学支行</t>
+    <t>6228 4800 2806 3873 971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行天津中嘉支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收肖、刘、任、朱、韩等五人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由肖代收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王帅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,9 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -702,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -715,7 +760,7 @@
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,6 +790,7 @@
         <f>B2*200</f>
         <v>800</v>
       </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="7" t="s">
@@ -754,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C46" si="0">B3*200</f>
+        <f t="shared" ref="C3:C47" si="0">B3*200</f>
         <v>1600</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>2014213185</v>
       </c>
     </row>
@@ -772,7 +818,7 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
         <v>2012212690</v>
       </c>
     </row>
@@ -787,7 +833,7 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="12">
         <v>2013270114</v>
       </c>
     </row>
@@ -802,6 +848,16 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D6" s="12"/>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="8" t="s">
@@ -814,6 +870,16 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="8" t="s">
@@ -826,6 +892,16 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="8" t="s">
@@ -838,6 +914,7 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="7" t="s">
@@ -850,11 +927,12 @@
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>52</v>
+      <c r="F10" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>49</v>
@@ -871,7 +949,7 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>2013213257</v>
       </c>
     </row>
@@ -886,11 +964,12 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="D12" s="12"/>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75">
@@ -904,6 +983,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="8" t="s">
@@ -916,7 +996,7 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="12">
         <v>2014310252</v>
       </c>
     </row>
@@ -931,7 +1011,7 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="12">
         <v>2013013234</v>
       </c>
     </row>
@@ -946,7 +1026,7 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="12">
         <v>2013013206</v>
       </c>
     </row>
@@ -961,6 +1041,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D17" s="12">
+        <v>2014210553</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18.75">
       <c r="A18" s="8" t="s">
@@ -973,6 +1056,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D18" s="12">
+        <v>2011010237</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="18.75">
       <c r="A19" s="8" t="s">
@@ -985,6 +1071,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D19" s="12">
+        <v>2011011916</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="18.75">
       <c r="A20" s="8" t="s">
@@ -997,6 +1086,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D20" s="12">
+        <v>2014010290</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="18.75">
       <c r="A21" s="8" t="s">
@@ -1009,6 +1101,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
+      <c r="D21" s="12">
+        <v>2014030042</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="18.75">
       <c r="A22" s="7" t="s">
@@ -1021,40 +1116,42 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75">
+      <c r="D22" s="12">
+        <v>2013012946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="18.75">
       <c r="A23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>200</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2013011775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75">
+      <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D24" s="12">
         <v>2012212643</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2012212651</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -1063,17 +1160,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="F25" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
+      <c r="D25" s="12">
+        <v>2012212651</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -1082,13 +1175,17 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D26" s="11">
-        <v>2013213222</v>
+      <c r="D26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -1097,13 +1194,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D27" s="11">
-        <v>2013213258</v>
+      <c r="D27" s="12">
+        <v>2013213222</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75">
       <c r="A28" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -1112,13 +1209,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D28" s="11">
-        <v>2013213303</v>
+      <c r="D28" s="12">
+        <v>2013213258</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75">
       <c r="A29" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -1127,13 +1224,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D29" s="11">
-        <v>2013213223</v>
+      <c r="D29" s="12">
+        <v>2013213303</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75">
       <c r="A30" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>1</v>
@@ -1142,13 +1239,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D30" s="11">
-        <v>2012212654</v>
+      <c r="D30" s="12">
+        <v>2013213223</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75">
       <c r="A31" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
@@ -1157,13 +1254,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D31" s="11">
-        <v>2014224037</v>
+      <c r="D31" s="12">
+        <v>2012212654</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75">
       <c r="A32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>1</v>
@@ -1172,13 +1269,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D32" s="11">
-        <v>2012212638</v>
+      <c r="D32" s="12">
+        <v>2014224037</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75">
       <c r="A33" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
@@ -1188,12 +1285,12 @@
         <v>200</v>
       </c>
       <c r="D33" s="11">
-        <v>2013213230</v>
+        <v>2012212638</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75">
       <c r="A34" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -1202,17 +1299,13 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="F34" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
+      <c r="D34" s="12">
+        <v>2013213230</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75">
       <c r="A35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>1</v>
@@ -1221,13 +1314,17 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D35" s="11">
-        <v>2013210409</v>
+      <c r="D35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75">
       <c r="A36" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -1236,43 +1333,43 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D36" s="11">
-        <v>2013210329</v>
+      <c r="D36" s="12">
+        <v>2013210409</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.75">
       <c r="A37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2013210329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75">
+      <c r="A38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D37" s="11">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D38" s="12">
         <v>2013310216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.75">
-      <c r="A38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D38">
-        <v>2012010531</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.75">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>1</v>
@@ -1281,37 +1378,49 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D39" s="9">
-        <v>2011210487</v>
+      <c r="D39" s="12">
+        <v>2012010531</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18.75">
       <c r="A40" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2011210487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75">
+      <c r="A41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <v>3</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C41" s="4">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.75">
-      <c r="A41" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="4">
-        <v>2</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="0"/>
-        <v>400</v>
+      <c r="D41" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.75">
       <c r="A42" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
@@ -1320,10 +1429,13 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D42" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="18.75">
       <c r="A43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>2</v>
@@ -1332,10 +1444,13 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D43" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="18.75">
       <c r="A44" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>2</v>
@@ -1344,10 +1459,13 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D44" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="18.75">
-      <c r="A45" s="7" t="s">
-        <v>45</v>
+      <c r="A45" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>2</v>
@@ -1356,13 +1474,13 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D45" s="9">
-        <v>2010311247</v>
+      <c r="D45" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18.75">
-      <c r="A46" s="3" t="s">
-        <v>46</v>
+      <c r="A46" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B46" s="4">
         <v>2</v>
@@ -1371,6 +1489,22 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
+      <c r="D46" s="12">
+        <v>2010311247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D47" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/创客论坛/经费/合同制、学生工作量表.xlsx
+++ b/创客论坛/经费/合同制、学生工作量表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t xml:space="preserve"> 时间（半天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>校外人员 单位 卡号 开户行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国农业银行北京里仁街支行</t>
   </si>
   <si>
@@ -293,6 +289,62 @@
   </si>
   <si>
     <t>王帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青橙创客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津机电职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校外人员 单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142 625 19900426 3929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>231 026 19910108 4839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232 326 19940325 6533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420 102 19871028 171X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320 705 19930805 0019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 723 199220422 001X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青橙创客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,6 +352,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -394,15 +450,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,9 +501,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,7 +524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -747,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -762,9 +825,10 @@
     <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.25" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -776,10 +840,19 @@
         <v>47</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18.75">
+        <v>74</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -792,7 +865,7 @@
       </c>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -807,7 +880,7 @@
         <v>2014213185</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75">
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -822,7 +895,7 @@
         <v>2012212690</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
+    <row r="5" spans="1:8" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -837,7 +910,7 @@
         <v>2013270114</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
+    <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
@@ -850,16 +923,19 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75">
+      <c r="H6" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -872,16 +948,19 @@
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.75">
+        <v>55</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -894,16 +973,19 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.75">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -916,7 +998,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -929,16 +1011,19 @@
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75">
+        <v>48</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -953,7 +1038,7 @@
         <v>2013213257</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75">
       <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
@@ -965,14 +1050,20 @@
         <v>600</v>
       </c>
       <c r="D12" s="12"/>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75">
+        <v>52</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1076,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +1091,7 @@
         <v>2014310252</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -1015,7 +1106,7 @@
         <v>2013013234</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1121,7 @@
         <v>2013013206</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1045,7 +1136,7 @@
         <v>2014210553</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1151,7 @@
         <v>2011010237</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1166,7 @@
         <v>2011011916</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1181,7 @@
         <v>2014010290</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1196,7 @@
         <v>2014030042</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
@@ -1120,9 +1211,9 @@
         <v>2013012946</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="18.75">
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="18.75">
       <c r="A23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -1133,8 +1224,9 @@
       <c r="D23" s="12">
         <v>2013011775</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75">
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1241,7 @@
         <v>2012212643</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75">
+    <row r="25" spans="1:8" ht="18.75">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -1164,7 +1256,7 @@
         <v>2012212651</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="18.75">
+    <row r="26" spans="1:8" ht="18.75">
       <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
@@ -1176,14 +1268,20 @@
         <v>200</v>
       </c>
       <c r="D26" s="12"/>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
       <c r="F26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75">
+        <v>50</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1198,7 +1296,7 @@
         <v>2013213222</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.75">
+    <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1311,7 @@
         <v>2013213258</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18.75">
+    <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1326,7 @@
         <v>2013213303</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="18.75">
+    <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1341,7 @@
         <v>2013213223</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="18.75">
+    <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1356,7 @@
         <v>2012212654</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75">
+    <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -1315,11 +1413,14 @@
         <v>200</v>
       </c>
       <c r="D35" s="12"/>
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
       <c r="F35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75">
@@ -1409,13 +1510,16 @@
         <v>600</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
         <v>65</v>
-      </c>
-      <c r="G41" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.75">
@@ -1430,7 +1534,10 @@
         <v>400</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18.75">
@@ -1445,7 +1552,10 @@
         <v>400</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18.75">
@@ -1460,7 +1570,10 @@
         <v>400</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18.75">
@@ -1475,7 +1588,10 @@
         <v>400</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18.75">
@@ -1504,7 +1620,9 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="12">
+        <v>2014210279</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
